--- a/runs/run117/NotionalETEOutput117.xlsx
+++ b/runs/run117/NotionalETEOutput117.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_BRAVER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_92.MISSILE_ANGERMAX3_92</t>
+    <t>MISSILE_BRAVER1_131.MISSILE_BRAVER1_131</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_BRAVER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1566.737729193602</v>
+        <v>-1540.326588194114</v>
       </c>
       <c r="J2">
-        <v>2041.584782555926</v>
+        <v>2011.584473965498</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1479.266693973458</v>
+        <v>-1490.198999638538</v>
       </c>
       <c r="J3">
-        <v>2039.787199499521</v>
+        <v>1961.102338522225</v>
       </c>
       <c r="K3">
-        <v>300.9511662805613</v>
+        <v>317.8488431246305</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1511.338471046363</v>
+        <v>-1483.079056353315</v>
       </c>
       <c r="J4">
-        <v>1815.844178278291</v>
+        <v>1880.713897498171</v>
       </c>
       <c r="K4">
-        <v>567.1865283715172</v>
+        <v>597.4570088174934</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1367.921256239835</v>
+        <v>-1383.401305054363</v>
       </c>
       <c r="J5">
-        <v>1897.174380339507</v>
+        <v>1819.352128826608</v>
       </c>
       <c r="K5">
-        <v>833.2987518101161</v>
+        <v>903.7095234608157</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1340.159201033854</v>
+        <v>-1343.895692829601</v>
       </c>
       <c r="J6">
-        <v>1871.731724778509</v>
+        <v>1828.088492264247</v>
       </c>
       <c r="K6">
-        <v>1079.993435801396</v>
+        <v>1085.578150200812</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1311.182344745616</v>
+        <v>-1398.156753776871</v>
       </c>
       <c r="J7">
-        <v>1837.154482436802</v>
+        <v>1737.098532624525</v>
       </c>
       <c r="K7">
-        <v>1383.319657538183</v>
+        <v>1337.107872225541</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1260.334204083073</v>
+        <v>-1300.993390733743</v>
       </c>
       <c r="J8">
-        <v>1744.777015404495</v>
+        <v>1655.38713099815</v>
       </c>
       <c r="K8">
-        <v>1623.206113822984</v>
+        <v>1625.775691547165</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.60491783708527</v>
+        <v>-101.5985121828439</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1327.094409947863</v>
+        <v>-1336.937110694165</v>
       </c>
       <c r="J9">
-        <v>1628.832834200374</v>
+        <v>1586.077686893555</v>
       </c>
       <c r="K9">
-        <v>1898.842319580996</v>
+        <v>1845.310052592106</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>226.5810586523694</v>
+        <v>217.2144093248681</v>
       </c>
       <c r="G10">
-        <v>-82.20711228240243</v>
+        <v>-84.97867004578842</v>
       </c>
       <c r="H10">
-        <v>845.0833582693667</v>
+        <v>842.1935780783776</v>
       </c>
       <c r="I10">
-        <v>-1195.287884185955</v>
+        <v>-1241.446014561053</v>
       </c>
       <c r="J10">
-        <v>1585.60806935544</v>
+        <v>1566.07432909207</v>
       </c>
       <c r="K10">
-        <v>1916.797664853339</v>
+        <v>2044.215863655635</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>162.3180058118939</v>
+        <v>168.1128777027825</v>
       </c>
       <c r="G11">
-        <v>-63.88796174438409</v>
+        <v>-68.2565283744495</v>
       </c>
       <c r="H11">
-        <v>1098.265303729413</v>
+        <v>1067.763472468334</v>
       </c>
       <c r="I11">
-        <v>-1164.27028627547</v>
+        <v>-1150.903926767416</v>
       </c>
       <c r="J11">
-        <v>1515.120891386009</v>
+        <v>1584.073251560998</v>
       </c>
       <c r="K11">
-        <v>2292.739664667839</v>
+        <v>2219.902080780464</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.4284695989105</v>
+        <v>137.1439533914341</v>
       </c>
       <c r="G12">
-        <v>-50.71091128017481</v>
+        <v>-52.36726569032</v>
       </c>
       <c r="H12">
-        <v>1220.851969114333</v>
+        <v>1204.223108646886</v>
       </c>
       <c r="I12">
-        <v>-1156.230245889158</v>
+        <v>-1216.012084643358</v>
       </c>
       <c r="J12">
-        <v>1470.05572486782</v>
+        <v>1482.4987081073</v>
       </c>
       <c r="K12">
-        <v>2260.314836003319</v>
+        <v>2347.640746466408</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.4259607392486</v>
+        <v>120.1626679963232</v>
       </c>
       <c r="G13">
-        <v>-33.6616112444482</v>
+        <v>-33.60564264594588</v>
       </c>
       <c r="H13">
-        <v>1281.532985634115</v>
+        <v>1251.422774088598</v>
       </c>
       <c r="I13">
-        <v>-1136.274996868512</v>
+        <v>-1076.876464529624</v>
       </c>
       <c r="J13">
-        <v>1493.084477781715</v>
+        <v>1435.26223789056</v>
       </c>
       <c r="K13">
-        <v>2563.005763771803</v>
+        <v>2421.045535168573</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.6816042357497</v>
+        <v>112.1632741294749</v>
       </c>
       <c r="G14">
-        <v>-17.43292782275292</v>
+        <v>-17.83395238635791</v>
       </c>
       <c r="H14">
-        <v>1304.043668444558</v>
+        <v>1268.721871509714</v>
       </c>
       <c r="I14">
-        <v>-1077.988590951639</v>
+        <v>-1085.712986505241</v>
       </c>
       <c r="J14">
-        <v>1486.298978437134</v>
+        <v>1423.629499855931</v>
       </c>
       <c r="K14">
-        <v>2542.029713001708</v>
+        <v>2707.827320832782</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.4926127101223</v>
+        <v>96.0404352870988</v>
       </c>
       <c r="G15">
-        <v>-0.9688029351925136</v>
+        <v>-0.9529531313023935</v>
       </c>
       <c r="H15">
-        <v>1324.512013720276</v>
+        <v>1429.45700964324</v>
       </c>
       <c r="I15">
-        <v>-1062.083258063416</v>
+        <v>-1079.043422146167</v>
       </c>
       <c r="J15">
-        <v>1391.014964565785</v>
+        <v>1353.881280724459</v>
       </c>
       <c r="K15">
-        <v>2830.41782309585</v>
+        <v>2635.834660430911</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.09611679886675</v>
+        <v>94.17216924840044</v>
       </c>
       <c r="G16">
-        <v>15.60603351531304</v>
+        <v>16.36752253307367</v>
       </c>
       <c r="H16">
-        <v>1458.834280910624</v>
+        <v>1430.196690746006</v>
       </c>
       <c r="I16">
-        <v>-1020.682751956828</v>
+        <v>-992.8827602368967</v>
       </c>
       <c r="J16">
-        <v>1331.446196225933</v>
+        <v>1297.214942718692</v>
       </c>
       <c r="K16">
-        <v>2864.477747901114</v>
+        <v>3017.477235284406</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.73126256616082</v>
+        <v>90.7192770972744</v>
       </c>
       <c r="G17">
-        <v>31.89495705088339</v>
+        <v>33.38325932149311</v>
       </c>
       <c r="H17">
-        <v>1426.544864796675</v>
+        <v>1408.153381921368</v>
       </c>
       <c r="I17">
-        <v>-1003.689393867439</v>
+        <v>-957.3421904899798</v>
       </c>
       <c r="J17">
-        <v>1292.486412609379</v>
+        <v>1310.169203618289</v>
       </c>
       <c r="K17">
-        <v>2867.51653423518</v>
+        <v>2954.391165262799</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.55455471794912</v>
+        <v>84.0056721908702</v>
       </c>
       <c r="G18">
-        <v>50.13243180585886</v>
+        <v>50.75712136836959</v>
       </c>
       <c r="H18">
-        <v>1529.839730663758</v>
+        <v>1498.080545285203</v>
       </c>
       <c r="I18">
-        <v>-927.4345627557827</v>
+        <v>-906.6743971684033</v>
       </c>
       <c r="J18">
-        <v>1176.476452798523</v>
+        <v>1219.72638288849</v>
       </c>
       <c r="K18">
-        <v>3194.181333135022</v>
+        <v>2892.772848619816</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.58859774076984</v>
+        <v>74.79560299173434</v>
       </c>
       <c r="G19">
-        <v>66.45493355318577</v>
+        <v>65.40365760417998</v>
       </c>
       <c r="H19">
-        <v>1471.604125000542</v>
+        <v>1549.112733082666</v>
       </c>
       <c r="I19">
-        <v>-884.1570306121491</v>
+        <v>-866.6905705671187</v>
       </c>
       <c r="J19">
-        <v>1209.537321764147</v>
+        <v>1191.869203828024</v>
       </c>
       <c r="K19">
-        <v>3056.409191675872</v>
+        <v>3013.936720290668</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.46474875930531</v>
+        <v>72.0179359553167</v>
       </c>
       <c r="G20">
-        <v>84.07470677372081</v>
+        <v>83.08043064276599</v>
       </c>
       <c r="H20">
-        <v>1595.342372972067</v>
+        <v>1609.329183233186</v>
       </c>
       <c r="I20">
-        <v>-877.7408545133414</v>
+        <v>-808.4466763364977</v>
       </c>
       <c r="J20">
-        <v>1164.1657243037</v>
+        <v>1160.162647582766</v>
       </c>
       <c r="K20">
-        <v>3133.485054061488</v>
+        <v>3004.499324129809</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.55046387058481</v>
+        <v>73.60022492316209</v>
       </c>
       <c r="G21">
-        <v>95.07356239335125</v>
+        <v>98.51107938914963</v>
       </c>
       <c r="H21">
-        <v>1590.601170651939</v>
+        <v>1558.434307685066</v>
       </c>
       <c r="I21">
-        <v>-821.6284140512096</v>
+        <v>-765.8031075712639</v>
       </c>
       <c r="J21">
-        <v>1090.557428836933</v>
+        <v>1064.384234805146</v>
       </c>
       <c r="K21">
-        <v>3249.376441913002</v>
+        <v>3060.001103400187</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.03424678328196</v>
+        <v>68.86947134559895</v>
       </c>
       <c r="G22">
-        <v>113.8694332024184</v>
+        <v>115.2316554168632</v>
       </c>
       <c r="H22">
-        <v>1590.962454937696</v>
+        <v>1535.162275875666</v>
       </c>
       <c r="I22">
-        <v>-782.1514741343725</v>
+        <v>-724.3315681677882</v>
       </c>
       <c r="J22">
-        <v>1053.600401966231</v>
+        <v>1069.830876227926</v>
       </c>
       <c r="K22">
-        <v>3237.355416117891</v>
+        <v>3038.086158553941</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.56914026588861</v>
+        <v>65.65041421658619</v>
       </c>
       <c r="G23">
-        <v>133.2387424656663</v>
+        <v>132.3404141580862</v>
       </c>
       <c r="H23">
-        <v>1661.604037469084</v>
+        <v>1617.567493344756</v>
       </c>
       <c r="I23">
-        <v>-725.6013414347533</v>
+        <v>-725.0285062441277</v>
       </c>
       <c r="J23">
-        <v>1000.562605113285</v>
+        <v>975.3987507165637</v>
       </c>
       <c r="K23">
-        <v>3050.272532470624</v>
+        <v>3219.137028786892</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.92131203570926</v>
+        <v>63.17729975630212</v>
       </c>
       <c r="G24">
-        <v>152.0372423721023</v>
+        <v>154.566044060657</v>
       </c>
       <c r="H24">
-        <v>1629.344062333803</v>
+        <v>1734.890704951365</v>
       </c>
       <c r="I24">
-        <v>-680.7577958837986</v>
+        <v>-657.0981604003499</v>
       </c>
       <c r="J24">
-        <v>955.4490643520147</v>
+        <v>924.0195265348647</v>
       </c>
       <c r="K24">
-        <v>3295.971615256015</v>
+        <v>3291.924715468133</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.31030110306818</v>
+        <v>59.74426253187308</v>
       </c>
       <c r="G25">
-        <v>163.2753761362225</v>
+        <v>165.2709494403697</v>
       </c>
       <c r="H25">
-        <v>1747.98396425475</v>
+        <v>1709.516258711626</v>
       </c>
       <c r="I25">
-        <v>-573.2064406710001</v>
+        <v>-571.054547705909</v>
       </c>
       <c r="J25">
-        <v>881.8328773470705</v>
+        <v>890.5124493209125</v>
       </c>
       <c r="K25">
-        <v>3077.945923657008</v>
+        <v>3146.421658598864</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.04626843709158</v>
+        <v>58.56538076958412</v>
       </c>
       <c r="G26">
-        <v>183.6909430728384</v>
+        <v>178.047780600435</v>
       </c>
       <c r="H26">
-        <v>1656.518955782852</v>
+        <v>1628.141465794424</v>
       </c>
       <c r="I26">
-        <v>-539.1998275966363</v>
+        <v>-558.6498288654766</v>
       </c>
       <c r="J26">
-        <v>822.4114587736634</v>
+        <v>802.1499138318104</v>
       </c>
       <c r="K26">
-        <v>3008.170370839644</v>
+        <v>3185.591945157361</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.6923219514175</v>
+        <v>60.67802781288349</v>
       </c>
       <c r="G27">
-        <v>201.6980757043971</v>
+        <v>201.0181866884811</v>
       </c>
       <c r="H27">
-        <v>1781.409309621531</v>
+        <v>1671.919015973914</v>
       </c>
       <c r="I27">
-        <v>-478.9060940006377</v>
+        <v>-479.5337777667228</v>
       </c>
       <c r="J27">
-        <v>792.3813859354406</v>
+        <v>822.08836892059</v>
       </c>
       <c r="K27">
-        <v>3056.284181281887</v>
+        <v>2978.579273668048</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.57546891819966</v>
+        <v>59.07278658208245</v>
       </c>
       <c r="G28">
-        <v>221.536198711151</v>
+        <v>222.8487499338544</v>
       </c>
       <c r="H28">
-        <v>1672.179572038378</v>
+        <v>1680.219867848377</v>
       </c>
       <c r="I28">
-        <v>-421.8133990536285</v>
+        <v>-420.0496167576514</v>
       </c>
       <c r="J28">
-        <v>731.8341244990586</v>
+        <v>707.9774240245171</v>
       </c>
       <c r="K28">
-        <v>2945.482801140154</v>
+        <v>3090.623757732575</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.20438133398825</v>
+        <v>53.93115945428104</v>
       </c>
       <c r="G29">
-        <v>232.3297991851012</v>
+        <v>238.3723634203794</v>
       </c>
       <c r="H29">
-        <v>1690.64719300717</v>
+        <v>1679.804571860347</v>
       </c>
       <c r="I29">
-        <v>-390.838427024707</v>
+        <v>-389.2933990389025</v>
       </c>
       <c r="J29">
-        <v>662.4170802964032</v>
+        <v>679.1735760376466</v>
       </c>
       <c r="K29">
-        <v>2754.764808433188</v>
+        <v>2999.250227312133</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.96710136391982</v>
+        <v>54.02257575210447</v>
       </c>
       <c r="G30">
-        <v>247.178240794471</v>
+        <v>255.2756939402111</v>
       </c>
       <c r="H30">
-        <v>1703.313897665744</v>
+        <v>1679.923159504128</v>
       </c>
       <c r="I30">
-        <v>-317.7885979226342</v>
+        <v>-331.5593619815169</v>
       </c>
       <c r="J30">
-        <v>608.9268833316461</v>
+        <v>623.8492174483287</v>
       </c>
       <c r="K30">
-        <v>2644.566679038047</v>
+        <v>2786.164133437388</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.4557077480319</v>
+        <v>54.09753721601547</v>
       </c>
       <c r="G31">
-        <v>256.4394718157023</v>
+        <v>254.8862460970565</v>
       </c>
       <c r="H31">
-        <v>1734.356706306706</v>
+        <v>1707.129623548634</v>
       </c>
       <c r="I31">
-        <v>-274.7259581296625</v>
+        <v>-277.7013425351498</v>
       </c>
       <c r="J31">
-        <v>609.127684755985</v>
+        <v>591.5994242422692</v>
       </c>
       <c r="K31">
-        <v>2731.746001893518</v>
+        <v>2559.849380950261</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.10513531384901</v>
+        <v>53.18440377132617</v>
       </c>
       <c r="G32">
-        <v>267.0412507613283</v>
+        <v>283.002810635231</v>
       </c>
       <c r="H32">
-        <v>1731.02981698855</v>
+        <v>1784.111194583338</v>
       </c>
       <c r="I32">
-        <v>-212.6083396971931</v>
+        <v>-202.6781934825851</v>
       </c>
       <c r="J32">
-        <v>541.7985328622633</v>
+        <v>554.0675384708892</v>
       </c>
       <c r="K32">
-        <v>2499.731962054671</v>
+        <v>2593.194610911519</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.17171160776567</v>
+        <v>51.34340767498511</v>
       </c>
       <c r="G33">
-        <v>283.8390643071149</v>
+        <v>310.6555081640725</v>
       </c>
       <c r="H33">
-        <v>1872.40253761462</v>
+        <v>1856.580861012428</v>
       </c>
       <c r="I33">
-        <v>-149.0773780298792</v>
+        <v>-145.9923139311227</v>
       </c>
       <c r="J33">
-        <v>512.7567520111701</v>
+        <v>485.0658384368165</v>
       </c>
       <c r="K33">
-        <v>2380.141816309817</v>
+        <v>2428.767453703078</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.11601637805188</v>
+        <v>50.20670606438262</v>
       </c>
       <c r="G34">
-        <v>298.1698373419003</v>
+        <v>321.7390019390682</v>
       </c>
       <c r="H34">
-        <v>1883.403502836823</v>
+        <v>1778.592577545239</v>
       </c>
       <c r="I34">
-        <v>-82.96113506444856</v>
+        <v>-80.59661263078355</v>
       </c>
       <c r="J34">
-        <v>429.9651958416471</v>
+        <v>428.4501105752402</v>
       </c>
       <c r="K34">
-        <v>2250.340815488782</v>
+        <v>2105.43070540905</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.43374386265491</v>
+        <v>48.17974569149027</v>
       </c>
       <c r="G35">
-        <v>331.5127903050659</v>
+        <v>329.7666243818801</v>
       </c>
       <c r="H35">
-        <v>1780.319226264007</v>
+        <v>1771.544512689209</v>
       </c>
       <c r="I35">
-        <v>-19.66003903545999</v>
+        <v>-18.11437320032274</v>
       </c>
       <c r="J35">
-        <v>408.6040432245578</v>
+        <v>383.7530125633937</v>
       </c>
       <c r="K35">
-        <v>2122.21177759391</v>
+        <v>2029.174989156088</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.28531147292555</v>
+        <v>48.95293946087705</v>
       </c>
       <c r="G36">
-        <v>347.5967732457479</v>
+        <v>329.785921847519</v>
       </c>
       <c r="H36">
-        <v>1822.438817053378</v>
+        <v>1762.807798350158</v>
       </c>
       <c r="I36">
-        <v>46.08555338910622</v>
+        <v>48.04747072519424</v>
       </c>
       <c r="J36">
-        <v>357.66299414697</v>
+        <v>335.3181853230589</v>
       </c>
       <c r="K36">
-        <v>1871.452445182912</v>
+        <v>1743.258765014354</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.64696894875742</v>
+        <v>44.8735190240493</v>
       </c>
       <c r="G37">
-        <v>377.2445317416989</v>
+        <v>373.5848894018291</v>
       </c>
       <c r="H37">
-        <v>1835.401720771804</v>
+        <v>1750.331801002527</v>
       </c>
       <c r="I37">
-        <v>109.88705795766</v>
+        <v>118.4014943287673</v>
       </c>
       <c r="J37">
-        <v>309.1871649895243</v>
+        <v>295.910444107378</v>
       </c>
       <c r="K37">
-        <v>1570.901239272742</v>
+        <v>1565.415095759982</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.98803884324512</v>
+        <v>43.47935601761242</v>
       </c>
       <c r="G38">
-        <v>394.8315964346243</v>
+        <v>396.4540381140854</v>
       </c>
       <c r="H38">
-        <v>1846.443106062873</v>
+        <v>1809.251600022832</v>
       </c>
       <c r="I38">
-        <v>181.5457837757603</v>
+        <v>179.3492526777179</v>
       </c>
       <c r="J38">
-        <v>236.8541147099131</v>
+        <v>249.7814182614005</v>
       </c>
       <c r="K38">
-        <v>1360.663546097518</v>
+        <v>1364.311893143085</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.12820201484078</v>
+        <v>46.72161852151438</v>
       </c>
       <c r="G39">
-        <v>401.8241920846337</v>
+        <v>379.8258243608922</v>
       </c>
       <c r="H39">
-        <v>1947.95979405618</v>
+        <v>1930.969211512464</v>
       </c>
       <c r="I39">
-        <v>247.3194597290336</v>
+        <v>247.2048768861023</v>
       </c>
       <c r="J39">
-        <v>200.2505460618387</v>
+        <v>190.6669440130939</v>
       </c>
       <c r="K39">
-        <v>1121.578800051197</v>
+        <v>1120.590403910978</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.00611275234646</v>
+        <v>45.91169101567382</v>
       </c>
       <c r="G40">
-        <v>420.7950120960294</v>
+        <v>424.4237471330615</v>
       </c>
       <c r="H40">
-        <v>1817.245163641632</v>
+        <v>1890.208239013143</v>
       </c>
       <c r="I40">
-        <v>338.5450825100864</v>
+        <v>329.8663164267862</v>
       </c>
       <c r="J40">
-        <v>156.6349123243766</v>
+        <v>151.9198466935583</v>
       </c>
       <c r="K40">
-        <v>923.2311343186385</v>
+        <v>914.4353270125077</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.87233610822943</v>
+        <v>42.82018592507537</v>
       </c>
       <c r="G41">
-        <v>438.0189746562642</v>
+        <v>425.934321014886</v>
       </c>
       <c r="H41">
-        <v>1798.240483223216</v>
+        <v>1808.486747722834</v>
       </c>
       <c r="I41">
-        <v>403.035958495342</v>
+        <v>415.1809843535559</v>
       </c>
       <c r="J41">
-        <v>98.46958820518317</v>
+        <v>102.6327302796711</v>
       </c>
       <c r="K41">
-        <v>609.0981980470957</v>
+        <v>638.1314111954731</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.45067195497582</v>
+        <v>44.89924932178315</v>
       </c>
       <c r="G42">
-        <v>425.3269466849195</v>
+        <v>464.6516102925117</v>
       </c>
       <c r="H42">
-        <v>1980.849985278835</v>
+        <v>1967.755904590448</v>
       </c>
       <c r="I42">
-        <v>463.1017365026542</v>
+        <v>495.6951506783069</v>
       </c>
       <c r="J42">
-        <v>51.29867209549061</v>
+        <v>52.51692860605593</v>
       </c>
       <c r="K42">
-        <v>323.3171520389</v>
+        <v>334.4575183935359</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.0279300969575</v>
+        <v>42.96656249416398</v>
       </c>
       <c r="G43">
-        <v>467.9242837527889</v>
+        <v>444.87347941107</v>
       </c>
       <c r="H43">
-        <v>1950.65393506099</v>
+        <v>1829.434367552194</v>
       </c>
       <c r="I43">
-        <v>576.7866442633782</v>
+        <v>534.4251990187784</v>
       </c>
       <c r="J43">
-        <v>5.034890358173638</v>
+        <v>5.290879437564407</v>
       </c>
       <c r="K43">
-        <v>33.59936564276741</v>
+        <v>33.43523138716618</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.03377891338749</v>
+        <v>40.21126088172638</v>
       </c>
       <c r="G44">
-        <v>482.1898250393347</v>
+        <v>487.3895095113094</v>
       </c>
       <c r="H44">
-        <v>1859.222585249139</v>
+        <v>1904.624468491812</v>
       </c>
       <c r="I44">
-        <v>635.3371693027631</v>
+        <v>658.2135565168265</v>
       </c>
       <c r="J44">
-        <v>-41.30083848104888</v>
+        <v>-41.60141720088945</v>
       </c>
       <c r="K44">
-        <v>-291.5475545434542</v>
+        <v>-295.7698676836686</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.31611787245127</v>
+        <v>39.03936350886557</v>
       </c>
       <c r="G45">
-        <v>501.1903431846515</v>
+        <v>491.3816419431311</v>
       </c>
       <c r="H45">
-        <v>1832.612900243788</v>
+        <v>2005.987269042603</v>
       </c>
       <c r="I45">
-        <v>693.5018140538095</v>
+        <v>726.339036808126</v>
       </c>
       <c r="J45">
-        <v>-88.05634437842706</v>
+        <v>-93.6340035354188</v>
       </c>
       <c r="K45">
-        <v>-624.4668731529932</v>
+        <v>-623.5110468462636</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.01521673055291</v>
+        <v>41.92008545161343</v>
       </c>
       <c r="G46">
-        <v>497.8068570333413</v>
+        <v>499.9762259415589</v>
       </c>
       <c r="H46">
-        <v>1951.271728896625</v>
+        <v>1967.85419667696</v>
       </c>
       <c r="I46">
-        <v>824.8711374954377</v>
+        <v>765.6988398216947</v>
       </c>
       <c r="J46">
-        <v>-133.7112006581565</v>
+        <v>-144.1639767194317</v>
       </c>
       <c r="K46">
-        <v>-981.6726350413459</v>
+        <v>-995.1616427785514</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.38592579987073</v>
+        <v>41.86567992426954</v>
       </c>
       <c r="G47">
-        <v>538.9035416783686</v>
+        <v>532.4031620920997</v>
       </c>
       <c r="H47">
-        <v>1987.670317916218</v>
+        <v>2013.28198058641</v>
       </c>
       <c r="I47">
-        <v>886.2201521585167</v>
+        <v>871.9398886999624</v>
       </c>
       <c r="J47">
-        <v>-186.4026593711065</v>
+        <v>-191.904163783909</v>
       </c>
       <c r="K47">
-        <v>-1384.519557868788</v>
+        <v>-1281.592099324339</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.98973153036642</v>
+        <v>40.50742345659291</v>
       </c>
       <c r="G48">
-        <v>541.7590119504097</v>
+        <v>519.1117186379224</v>
       </c>
       <c r="H48">
-        <v>1956.084272137392</v>
+        <v>1941.256429672656</v>
       </c>
       <c r="I48">
-        <v>1018.622225540805</v>
+        <v>999.1050660312263</v>
       </c>
       <c r="J48">
-        <v>-241.8496529803485</v>
+        <v>-239.2324627094462</v>
       </c>
       <c r="K48">
-        <v>-1683.906866530087</v>
+        <v>-1684.368830120967</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.66020226486596</v>
+        <v>37.71253656920326</v>
       </c>
       <c r="G49">
-        <v>535.452058319353</v>
+        <v>538.3228963147438</v>
       </c>
       <c r="H49">
-        <v>1889.459174604616</v>
+        <v>2019.443257169156</v>
       </c>
       <c r="I49">
-        <v>1022.315916285098</v>
+        <v>1043.051824717073</v>
       </c>
       <c r="J49">
-        <v>-288.1809716664063</v>
+        <v>-284.8287467513993</v>
       </c>
       <c r="K49">
-        <v>-2091.697519873769</v>
+        <v>-1995.473143834522</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.50269999881142</v>
+        <v>37.42582052533461</v>
       </c>
       <c r="G50">
-        <v>601.7369020129867</v>
+        <v>562.6108082864165</v>
       </c>
       <c r="H50">
-        <v>1927.820947587251</v>
+        <v>1927.607615970352</v>
       </c>
       <c r="I50">
-        <v>1188.988899952416</v>
+        <v>1113.841201054278</v>
       </c>
       <c r="J50">
-        <v>-330.4174081152105</v>
+        <v>-340.0509749538064</v>
       </c>
       <c r="K50">
-        <v>-2430.499783434952</v>
+        <v>-2565.320303074653</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.1232939931954</v>
+        <v>37.26238594239138</v>
       </c>
       <c r="G51">
-        <v>581.0531932722157</v>
+        <v>572.8895948779586</v>
       </c>
       <c r="H51">
-        <v>1973.288537863904</v>
+        <v>1951.108897506893</v>
       </c>
       <c r="I51">
-        <v>1246.588855253136</v>
+        <v>1313.286190860223</v>
       </c>
       <c r="J51">
-        <v>-396.1315433564276</v>
+        <v>-391.6231904658909</v>
       </c>
       <c r="K51">
-        <v>-2953.640968576667</v>
+        <v>-2889.348591905683</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.33885053586454</v>
+        <v>39.17425396531569</v>
       </c>
       <c r="G52">
-        <v>623.9360846694326</v>
+        <v>580.972701847475</v>
       </c>
       <c r="H52">
-        <v>1902.245713080155</v>
+        <v>2045.584009789087</v>
       </c>
       <c r="I52">
-        <v>1319.846532170294</v>
+        <v>1306.110188361917</v>
       </c>
       <c r="J52">
-        <v>-436.0540691264004</v>
+        <v>-448.9858174338833</v>
       </c>
       <c r="K52">
-        <v>-3356.954313050823</v>
+        <v>-3412.248341669962</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.27803675728947</v>
+        <v>38.13966867379036</v>
       </c>
       <c r="G53">
-        <v>611.6557996081702</v>
+        <v>652.6433611905476</v>
       </c>
       <c r="H53">
-        <v>2030.720191751464</v>
+        <v>2063.891924046647</v>
       </c>
       <c r="I53">
-        <v>1493.508421071761</v>
+        <v>1502.362604688047</v>
       </c>
       <c r="J53">
-        <v>-504.5177081023458</v>
+        <v>-460.8610360181383</v>
       </c>
       <c r="K53">
-        <v>-3851.596512090337</v>
+        <v>-3782.392682353336</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.60651574785634</v>
+        <v>35.53986321834584</v>
       </c>
       <c r="G54">
-        <v>615.2527934386125</v>
+        <v>637.0643583454105</v>
       </c>
       <c r="H54">
-        <v>1930.565843769774</v>
+        <v>1931.823124582556</v>
       </c>
       <c r="I54">
-        <v>1634.863553660185</v>
+        <v>1605.430402198718</v>
       </c>
       <c r="J54">
-        <v>-523.0105735180902</v>
+        <v>-549.487991948301</v>
       </c>
       <c r="K54">
-        <v>-4497.168238203726</v>
+        <v>-4497.440695615643</v>
       </c>
     </row>
   </sheetData>
